--- a/gameRecordFile.xlsx
+++ b/gameRecordFile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,6 +530,31 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>12-17 08:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/gameRecordFile.xlsx
+++ b/gameRecordFile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,6 +555,156 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12-17 09:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12-17 09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>和局</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>12-17 09:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>12-17 09:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>12-17 09:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>白方胜</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>12-17 09:33</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/gameRecordFile.xlsx
+++ b/gameRecordFile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,106 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>levi</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>白方胜</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>12-17 10:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>levi</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12-17 10:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>levi</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>和局</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>12-17 10:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12-17 10:20</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/gameRecordFile.xlsx
+++ b/gameRecordFile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -805,6 +805,56 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>levi</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>和局</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>12-17 11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>qing</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>computer</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>黑方胜</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12-17 11:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
